--- a/LeetCode freq file/LeetCode_freq.xlsx
+++ b/LeetCode freq file/LeetCode_freq.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\LeeCode\LeetCode freq file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Freq5" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="316">
   <si>
     <t>1</t>
   </si>
@@ -433,12 +433,6 @@
     <t>Add Binary</t>
   </si>
   <si>
-    <t>Add Two Numbers</t>
-  </si>
-  <si>
-    <t>Anagrams</t>
-  </si>
-  <si>
     <t>Balanced Binary Tree</t>
   </si>
   <si>
@@ -466,18 +460,12 @@
     <t>Binary Tree Zigzag Level Order Traversal</t>
   </si>
   <si>
-    <t>Climbing Stairs</t>
-  </si>
-  <si>
     <t>Combination Sum</t>
   </si>
   <si>
     <t>Combination Sum II</t>
   </si>
   <si>
-    <t>Combinations</t>
-  </si>
-  <si>
     <t>Construct Binary Tree from Inorder and Postorder T</t>
   </si>
   <si>
@@ -514,15 +502,9 @@
     <t>Flatten Binary Tree to Linked List</t>
   </si>
   <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
     <t>Gray Code</t>
   </si>
   <si>
-    <t>Implement strStr()</t>
-  </si>
-  <si>
     <t>Insert Interval</t>
   </si>
   <si>
@@ -580,12 +562,6 @@
     <t>Merge Sorted Array</t>
   </si>
   <si>
-    <t>Merge Two Sorted Lists</t>
-  </si>
-  <si>
-    <t>Merge k Sorted Lists</t>
-  </si>
-  <si>
     <t>Minimum Depth of Binary Tree</t>
   </si>
   <si>
@@ -610,9 +586,6 @@
     <t>Palindrome Number</t>
   </si>
   <si>
-    <t>Palindrome Partitioning</t>
-  </si>
-  <si>
     <t>Palindrome Partitioning II</t>
   </si>
   <si>
@@ -649,9 +622,6 @@
     <t>Populating Next Right Pointers in Each Node II</t>
   </si>
   <si>
-    <t>Pow(x, n)</t>
-  </si>
-  <si>
     <t>Recover Binary Search Tree</t>
   </si>
   <si>
@@ -688,9 +658,6 @@
     <t>Reverse Nodes in k-Group</t>
   </si>
   <si>
-    <t>Roman to Integer</t>
-  </si>
-  <si>
     <t>Rotate Image</t>
   </si>
   <si>
@@ -718,9 +685,6 @@
     <t>Search in Rotated Sorted Array II</t>
   </si>
   <si>
-    <t>Set Matrix Zeroes</t>
-  </si>
-  <si>
     <t>Simplify Path</t>
   </si>
   <si>
@@ -733,15 +697,6 @@
     <t>Spiral Matrix II</t>
   </si>
   <si>
-    <t>Sqrt(x)</t>
-  </si>
-  <si>
-    <t>String to Integer (atoi)</t>
-  </si>
-  <si>
-    <t>Subsets</t>
-  </si>
-  <si>
     <t>Subsets II</t>
   </si>
   <si>
@@ -757,9 +712,6 @@
     <t>Surrounded Regions</t>
   </si>
   <si>
-    <t>Swap Nodes in Pairs</t>
-  </si>
-  <si>
     <t>Symmetric Tree</t>
   </si>
   <si>
@@ -790,28 +742,16 @@
     <t>Valid Number</t>
   </si>
   <si>
-    <t>Valid Palindrome</t>
-  </si>
-  <si>
     <t>Valid Parentheses</t>
   </si>
   <si>
     <t>Valid Sudoku</t>
   </si>
   <si>
-    <t>Validate Binary Search Tree</t>
-  </si>
-  <si>
     <t>Wildcard Matching</t>
   </si>
   <si>
-    <t>Word Ladder</t>
-  </si>
-  <si>
     <t>Word Ladder II</t>
-  </si>
-  <si>
-    <t>Word Search</t>
   </si>
   <si>
     <t>ZigZag Conversion</t>
@@ -963,6 +903,102 @@
   </si>
   <si>
     <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Ladder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Word Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sqrt(x)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anagrams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subsets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roman to Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combinations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implement strStr()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,12 +1031,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1015,9 +1057,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1322,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1335,298 +1378,353 @@
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" t="s">
         <v>68</v>
       </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>300</v>
-      </c>
-      <c r="E15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" t="s">
-        <v>298</v>
-      </c>
-      <c r="E16" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>274</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F17">
+    <sortCondition ref="C2:C17"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B13" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1636,312 +1734,372 @@
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>310</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" t="s">
+        <v>276</v>
+      </c>
+      <c r="F10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" t="s">
         <v>264</v>
       </c>
-      <c r="E8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="F11" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>101</v>
-      </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>307</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>252</v>
+      </c>
+      <c r="F19" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F19">
+    <sortCondition ref="C2:C19"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1950,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1964,641 +2122,758 @@
     <col min="5" max="5" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
       <c r="E5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16" t="s">
+        <v>282</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>280</v>
+      </c>
+      <c r="E20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>280</v>
+      </c>
+      <c r="E21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="E8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D23" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
       </c>
-      <c r="D10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E10" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E11" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D24" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="B12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D12" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E13" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D25" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" t="s">
+        <v>284</v>
+      </c>
+      <c r="F25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B26" t="s">
+        <v>183</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="D14" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>264</v>
-      </c>
-      <c r="E16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" t="s">
-        <v>253</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>264</v>
-      </c>
-      <c r="E19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>281</v>
-      </c>
-      <c r="E23" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
-        <v>281</v>
-      </c>
-      <c r="E25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>129</v>
-      </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>301</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E29" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="F29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>154</v>
-      </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
-      </c>
-      <c r="E32" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" t="s">
+        <v>249</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>200</v>
       </c>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>300</v>
-      </c>
-      <c r="E33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" t="s">
-        <v>300</v>
-      </c>
-      <c r="E34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>300</v>
-      </c>
-      <c r="E35" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" t="s">
-        <v>175</v>
-      </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="E36" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E37" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>252</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F38">
+    <sortCondition ref="C2:C38"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2606,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2619,86 +2894,101 @@
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2709,558 +2999,663 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" t="s">
         <v>264</v>
       </c>
-      <c r="E8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
       </c>
       <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" t="s">
         <v>264</v>
       </c>
-      <c r="E17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="F23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+      <c r="F25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F26" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F28" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="F29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="F30" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E31" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="E32" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>275</v>
+        <v>255</v>
+      </c>
+      <c r="F40" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3271,10 +3666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3284,52 +3679,61 @@
     <col min="5" max="5" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -3340,315 +3744,375 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="F9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="F10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F12" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="F15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="F18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E20" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F20" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="F22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode freq file/LeetCode_freq.xlsx
+++ b/LeetCode freq file/LeetCode_freq.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Freq5" sheetId="2" r:id="rId1"/>
@@ -550,9 +550,6 @@
     <t>Maximum Depth of Binary Tree</t>
   </si>
   <si>
-    <t>Maximum Subarray</t>
-  </si>
-  <si>
     <t>Median of Two Sorted Arrays</t>
   </si>
   <si>
@@ -563,9 +560,6 @@
   </si>
   <si>
     <t>Minimum Depth of Binary Tree</t>
-  </si>
-  <si>
-    <t>Minimum Path Sum</t>
   </si>
   <si>
     <t>Minimum Window Substring</t>
@@ -999,6 +993,14 @@
   </si>
   <si>
     <t>Implement strStr()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,22 +1382,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1403,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,19 +1425,19 @@
         <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1443,19 +1445,19 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,19 +1465,19 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1483,19 +1485,19 @@
         <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,16 +1505,16 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1520,19 +1522,19 @@
         <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1540,19 +1542,19 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1566,13 +1568,13 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1580,16 +1582,16 @@
         <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,16 +1599,16 @@
         <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1614,19 +1616,19 @@
         <v>133</v>
       </c>
       <c r="B13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,19 +1636,19 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,19 +1656,19 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,19 +1676,19 @@
         <v>87</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,13 +1702,13 @@
         <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1736,22 +1738,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,19 +1761,19 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1779,16 +1781,16 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,16 +1798,16 @@
         <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1819,13 +1821,13 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1833,19 +1835,19 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,19 +1855,19 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,10 +1881,10 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,19 +1892,19 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1910,19 +1912,19 @@
         <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,19 +1932,19 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,16 +1952,16 @@
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,16 +1969,16 @@
         <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1984,19 +1986,19 @@
         <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2004,19 +2006,19 @@
         <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2030,13 +2032,13 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,13 +2052,13 @@
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,19 +2066,19 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C18" t="s">
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,16 +2086,16 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2111,7 +2113,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2124,22 +2126,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,19 +2149,19 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2167,16 +2169,16 @@
         <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2184,19 +2186,19 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2204,16 +2206,16 @@
         <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2221,19 +2223,19 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,19 +2243,19 @@
         <v>94</v>
       </c>
       <c r="B7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,13 +2269,13 @@
         <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,13 +2289,13 @@
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,13 +2309,13 @@
         <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,19 +2323,19 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>314</v>
       </c>
       <c r="C11" t="s">
         <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,19 +2343,19 @@
         <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,19 +2363,19 @@
         <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,19 +2383,19 @@
         <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2401,19 +2403,19 @@
         <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2421,19 +2423,19 @@
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2441,19 +2443,19 @@
         <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,13 +2469,13 @@
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2487,13 +2489,13 @@
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2507,13 +2509,13 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2521,19 +2523,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2547,10 +2549,10 @@
         <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2558,19 +2560,19 @@
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2578,19 +2580,19 @@
         <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2598,19 +2600,19 @@
         <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,19 +2620,19 @@
         <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2638,19 +2640,19 @@
         <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2664,13 +2666,13 @@
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2684,13 +2686,13 @@
         <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,13 +2706,13 @@
         <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2724,13 +2726,13 @@
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,10 +2746,10 @@
         <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,19 +2757,19 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,19 +2777,19 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,19 +2797,19 @@
         <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
         <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E35" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,19 +2817,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
         <v>80</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,19 +2837,19 @@
         <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C37" t="s">
         <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,19 +2857,19 @@
         <v>115</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
         <v>80</v>
       </c>
       <c r="D38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2896,22 +2898,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2925,13 +2927,13 @@
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2945,10 +2947,10 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,16 +2958,16 @@
         <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2979,13 +2981,13 @@
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,10 +3001,10 @@
         <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,19 +3012,19 @@
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3030,19 +3032,19 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3050,16 +3052,16 @@
         <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3067,16 +3069,16 @@
         <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,19 +3086,19 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,13 +3112,13 @@
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,13 +3132,13 @@
         <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3150,13 +3152,13 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,19 +3166,19 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C15" t="s">
         <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3190,10 +3192,10 @@
         <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3201,19 +3203,19 @@
         <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3221,16 +3223,16 @@
         <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,16 +3240,16 @@
         <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3261,10 +3263,10 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3272,16 +3274,16 @@
         <v>90</v>
       </c>
       <c r="B21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,19 +3291,19 @@
         <v>93</v>
       </c>
       <c r="B22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3309,19 +3311,19 @@
         <v>98</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,16 +3331,16 @@
         <v>100</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3346,19 +3348,19 @@
         <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3366,19 +3368,19 @@
         <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3386,19 +3388,19 @@
         <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,13 +3414,13 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3426,19 +3428,19 @@
         <v>121</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
         <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3452,10 +3454,10 @@
         <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3463,19 +3465,19 @@
         <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3483,19 +3485,19 @@
         <v>127</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3509,13 +3511,13 @@
         <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3523,19 +3525,19 @@
         <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3543,19 +3545,19 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3583,19 +3585,19 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3609,13 +3611,13 @@
         <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,19 +3625,19 @@
         <v>20</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E39" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3649,13 +3651,13 @@
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3681,22 +3683,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -3704,16 +3706,16 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3727,10 +3729,10 @@
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,13 +3746,13 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3758,19 +3760,19 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,13 +3786,13 @@
         <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,10 +3806,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,16 +3817,16 @@
         <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3832,19 +3834,19 @@
         <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3858,13 +3860,13 @@
         <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3872,19 +3874,19 @@
         <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
         <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,19 +3894,19 @@
         <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3912,19 +3914,19 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3938,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3958,13 +3960,13 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,19 +3974,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3992,16 +3994,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4009,16 +4011,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F18" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4026,19 +4028,19 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4052,13 +4054,13 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4072,13 +4074,13 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4092,13 +4094,13 @@
         <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,13 +4108,13 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
